--- a/Feature-Analysis/Resize Feature/s_11_right.xlsx
+++ b/Feature-Analysis/Resize Feature/s_11_right.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.84359953704</v>
+        <v>738157.84359953704</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.8442708333</v>
+        <v>738157.8442708333</v>
       </c>
       <c r="C3" s="0">
         <v>57.999997213482857</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.84442129626</v>
+        <v>738157.84442129626</v>
       </c>
       <c r="C4" s="0">
         <v>70.999997109174728</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.84482638887</v>
+        <v>738157.84482638887</v>
       </c>
       <c r="C5" s="0">
         <v>105.99999837577343</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.84511574078</v>
+        <v>738157.84511574078</v>
       </c>
       <c r="C6" s="0">
         <v>131.00000359117985</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.84557870368</v>
+        <v>738157.84557870368</v>
       </c>
       <c r="C7" s="0">
         <v>170.99999785423279</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.84586805559</v>
+        <v>738157.84586805559</v>
       </c>
       <c r="C8" s="0">
         <v>196.00000306963921</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.84628472221</v>
+        <v>738157.84628472221</v>
       </c>
       <c r="C9" s="0">
         <v>231.99999891221523</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.84670138895</v>
+        <v>738157.84670138895</v>
       </c>
       <c r="C10" s="0">
         <v>268.00000481307507</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.84703703702</v>
+        <v>738157.84703703702</v>
       </c>
       <c r="C11" s="0">
         <v>296.99999839067459</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.8474884259</v>
+        <v>738157.8474884259</v>
       </c>
       <c r="C12" s="0">
         <v>335.99999807775021</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.84775462968</v>
+        <v>738157.84775462968</v>
       </c>
       <c r="C13" s="0">
         <v>359.00000408291817</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.8481712963</v>
+        <v>738157.8481712963</v>
       </c>
       <c r="C14" s="0">
         <v>394.99999992549419</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.84844907408</v>
+        <v>738157.84844907408</v>
       </c>
       <c r="C15" s="0">
         <v>419.00000050663948</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.84888888884</v>
+        <v>738157.84888888884</v>
       </c>
       <c r="C16" s="0">
         <v>456.99999555945396</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.84916666662</v>
+        <v>738157.84916666662</v>
       </c>
       <c r="C17" s="0">
         <v>480.99999614059925</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.84961805551</v>
+        <v>738157.84961805551</v>
       </c>
       <c r="C18" s="0">
         <v>519.99999582767487</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.84993055556</v>
+        <v>738157.84993055556</v>
       </c>
       <c r="C19" s="0">
         <v>547.00000025331974</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.85049768514</v>
+        <v>738157.85049768514</v>
       </c>
       <c r="C20" s="0">
         <v>595.99999599158764</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.8506481481</v>
+        <v>738157.8506481481</v>
       </c>
       <c r="C21" s="0">
         <v>608.99999588727951</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.85155092587</v>
+        <v>738157.85155092587</v>
       </c>
       <c r="C22" s="0">
         <v>686.99999526143074</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.85155092587</v>
+        <v>738157.85155092587</v>
       </c>
       <c r="C23" s="0">
         <v>686.99999526143074</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.85180555552</v>
+        <v>738157.85180555552</v>
       </c>
       <c r="C24" s="0">
         <v>708.99999663233757</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.85238425923</v>
+        <v>738157.85238425923</v>
       </c>
       <c r="C25" s="0">
         <v>758.9999970048666</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.85254629632</v>
+        <v>738157.85254629632</v>
       </c>
       <c r="C26" s="0">
         <v>773.0000015348196</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.8529976852</v>
+        <v>738157.8529976852</v>
       </c>
       <c r="C27" s="0">
         <v>812.00000122189522</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.85329861112</v>
+        <v>738157.85329861112</v>
       </c>
       <c r="C28" s="0">
         <v>838.00000101327896</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.85370370373</v>
+        <v>738157.85370370373</v>
       </c>
       <c r="C29" s="0">
         <v>873.00000227987766</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.85412037035</v>
+        <v>738157.85412037035</v>
       </c>
       <c r="C30" s="0">
         <v>908.99999812245369</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.85440972226</v>
+        <v>738157.85440972226</v>
       </c>
       <c r="C31" s="0">
         <v>934.00000333786011</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.85483796301</v>
+        <v>738157.85483796301</v>
       </c>
       <c r="C32" s="0">
         <v>971.00000381469727</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.85527777777</v>
+        <v>738157.85527777777</v>
       </c>
       <c r="C33" s="0">
         <v>1008.9999988675117</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.85555555555</v>
+        <v>738157.85555555555</v>
       </c>
       <c r="C34" s="0">
         <v>1032.999999448657</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.85583333333</v>
+        <v>738157.85583333333</v>
       </c>
       <c r="C35" s="0">
         <v>1057.0000000298023</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.85630787036</v>
+        <v>738157.85630787036</v>
       </c>
       <c r="C36" s="0">
         <v>1097.9999989271164</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.85659722227</v>
+        <v>738157.85659722227</v>
       </c>
       <c r="C37" s="0">
         <v>1123.0000041425228</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.85706018517</v>
+        <v>738157.85706018517</v>
       </c>
       <c r="C38" s="0">
         <v>1162.9999984055758</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.85733796295</v>
+        <v>738157.85733796295</v>
       </c>
       <c r="C39" s="0">
         <v>1186.999998986721</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.85775462957</v>
+        <v>738157.85775462957</v>
       </c>
       <c r="C40" s="0">
         <v>1222.9999948292971</v>
